--- a/tut05/output/0401EE14.xlsx
+++ b/tut05/output/0401EE14.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.510204081632653</v>
+        <v>7.51</v>
       </c>
       <c r="C6" t="n">
         <v>7.25</v>
       </c>
       <c r="D6" t="n">
-        <v>7.652173913043478</v>
+        <v>7.65</v>
       </c>
       <c r="E6" t="n">
-        <v>7.739130434782608</v>
+        <v>7.74</v>
       </c>
       <c r="F6" t="n">
-        <v>8.538461538461538</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G6" t="n">
         <v>8.35</v>
       </c>
       <c r="H6" t="n">
-        <v>8.255813953488373</v>
+        <v>8.26</v>
       </c>
       <c r="I6" t="n">
-        <v>8.315789473684211</v>
+        <v>8.32</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.510204081632653</v>
+        <v>7.51</v>
       </c>
       <c r="C8" t="n">
-        <v>7.387096774193548</v>
+        <v>7.39</v>
       </c>
       <c r="D8" t="n">
-        <v>7.474820143884892</v>
+        <v>7.47</v>
       </c>
       <c r="E8" t="n">
-        <v>7.54054054054054</v>
+        <v>7.54</v>
       </c>
       <c r="F8" t="n">
-        <v>7.714285714285714</v>
+        <v>7.71</v>
       </c>
       <c r="G8" t="n">
-        <v>7.810606060606061</v>
+        <v>7.81</v>
       </c>
       <c r="H8" t="n">
-        <v>7.872964169381108</v>
+        <v>7.87</v>
       </c>
       <c r="I8" t="n">
-        <v>7.921739130434783</v>
+        <v>7.92</v>
       </c>
     </row>
   </sheetData>
